--- a/biology/Zoologie/Eagris_sabadius/Eagris_sabadius.xlsx
+++ b/biology/Zoologie/Eagris_sabadius/Eagris_sabadius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eagris sabadius est une espèce insectes lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et du genre Eagris.
 </t>
@@ -511,53 +523,56 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eagris sabadius a été décrit par Gray en 1832 sous le nom de Hesperia sabadius.
-Synonyme : Thymele sabadius Boisduval, 1833[1].
-Noms vernaculaires
-Sous-espèces
-Eagris sabadius sabadius
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eagris sabadius a été décrit par Gray en 1832 sous le nom de Hesperia sabadius.
+Synonyme : Thymele sabadius Boisduval, 1833.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eagris sabadius sabadius
 Eagris sabadius aldabranus Fryer, 1912
 Eagris sabadius andracne (Boisduval, 1833) - Madagascar
 Eagris sabadius astoria Holland, 1896
 Eagris sabadius comorana Evans, 1937
 Eagris sabadius isabella Turlin, 1995
 Eagris sabadius maheta Evans, 1937
-Eagris sabadius ochreana Lathy, 1901[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eagris_sabadius</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eagris_sabadius</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit papillon marron d'une envergure variant de 25 à 34 mm (le mâle est plus petit que la femelle). La femelle présente des cellules vitreuses sur le dessus de ses ailes antérieures.
-Chenille
-La chenille est de couleur verte avec une tête marron à reflets violets[2].
-</t>
+Eagris sabadius ochreana Lathy, 1901</t>
         </is>
       </c>
     </row>
@@ -582,13 +597,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont diverses : Allophylus sp., Grewia sp., Hibiscus sp. (Hibiscus boryanus, Hibiscus rosa-sinensis, Hibiscus columnaris et Rhus sp. ainsi que Litsea glutinosa, Abutilon extipularae, Molinea alternifolia, Dombeya populnea[1],[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon marron d'une envergure variant de 25 à 34 mm (le mâle est plus petit que la femelle). La femelle présente des cellules vitreuses sur le dessus de ses ailes antérieures.
 </t>
         </is>
       </c>
@@ -614,16 +630,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur verte avec une tête marron à reflets violets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont diverses : Allophylus sp., Grewia sp., Hibiscus sp. (Hibiscus boryanus, Hibiscus rosa-sinensis, Hibiscus columnaris et Rhus sp. ainsi que Litsea glutinosa, Abutilon extipularae, Molinea alternifolia, Dombeya populnea,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside en Afrique au Malawi, Zimbabwe, Kenya, en Ouganda, à Madagascar, à La Réunion, l'ile Maurice, dans l'archipel des Comores, Aldabra et les Seychelles et à Mayotte pour Eagris sabadius isabella[1],[2].
-Biotope
-Il réside dans toutes les zones où poussent ses plantes hôtes, en forêt humide comme en altitude[2].
-Protection
-Pas de statut de protection particulier, figure avec la mention LC sur la liste rouge des rhopalocères de La RéunionINPN protection.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en Afrique au Malawi, Zimbabwe, Kenya, en Ouganda, à Madagascar, à La Réunion, l'ile Maurice, dans l'archipel des Comores, Aldabra et les Seychelles et à Mayotte pour Eagris sabadius isabella,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans toutes les zones où poussent ses plantes hôtes, en forêt humide comme en altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eagris_sabadius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier, figure avec la mention LC sur la liste rouge des rhopalocères de La RéunionINPN protection.
 </t>
         </is>
       </c>
